--- a/New folder/average_mortality_rates.xlsx
+++ b/New folder/average_mortality_rates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,91 +448,781 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>brazil</t>
+          <t>albania</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.31666666666667</v>
+        <v>7.466666666666668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>british virgin islands</t>
+          <t>argentina</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7.883333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>china</t>
+          <t>bangladesh</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.775</v>
+        <v>8.725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>colombia</t>
+          <t>brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.2</v>
+        <v>11.31666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>india</t>
+          <t>cameroon</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.183333333333334</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mexico</t>
+          <t>china</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.8</v>
+        <v>10.775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>turkiye</t>
+          <t>colombia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>latin america &amp; caribbean</t>
+          <t>costa rica</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.47510628771119</v>
+        <v>9.083333333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>cote d'ivoire</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13.88333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12.025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>egypt, arab rep.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>gabon</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13.46666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>georgia</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ghana</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14.55833333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>honduras</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.358333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9.183333333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>indonesia</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7.191666666666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>iran, islamic rep.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>12.96666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>iraq</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13.075</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>jamaica</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7.774999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.016666666666667</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>jordan</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12.60833333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>kazakhstan</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9.166666666666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>kenya</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15.975</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>lao pdr</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9.483333333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13.725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mexico</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>peru</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8.191666666666666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>philippines</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6.758333333333334</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>russian federation</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9.875000000000002</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>turkiye</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>turkmenistan</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8.766666666666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>turks and caicos islands</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>tuvalu</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>uganda</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>17.81666666666667</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ukraine</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7.024999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>united arab emirates</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8.608333333333333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>united kingdom</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7.508333333333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>uruguay</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>uzbekistan</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>6.425000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vanuatu</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8.758333333333333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>venezuela, rb</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>20.61666666666666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>viet nam</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>15.70833333333333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>virgin islands (u.s.)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>west bank and gaza</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4416666666666667</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>yemen, rep.</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>zambia</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12.64166666666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>zimbabwe</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>22.30833333333333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>africa eastern and southern</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>17.0297449589564</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>africa western and central</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>14.58651014380609</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>arab world</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>11.64484953978584</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>caribbean small states</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>8.537760274165137</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>central europe and the baltics</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5.738323577025761</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>early-demographic dividend</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9.554469017063866</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>east asia &amp; pacific (excluding high income)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10.74217882927257</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>east asia &amp; pacific (ida &amp; ibrd countries)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10.70375843294384</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>euro area</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.669332266687846</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>europe &amp; central asia</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5.488320177107624</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>europe &amp; central asia (excluding high income)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7.830976181976754</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>europe &amp; central asia (ida &amp; ibrd countries)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7.60347875342374</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>european union</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4.038772612670976</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>fragile and conflict affected situations</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>14.60290459436855</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>heavily indebted poor countries (hipc)</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16.07363383854636</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>high income</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5.357123371328434</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ibrd only</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>10.08163211759761</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>late-demographic dividend</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>11.01840166828107</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>latin america &amp; caribbean</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10.47510628771119</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>latin america &amp; caribbean (excluding high income)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>10.04997192447762</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>latin america &amp; the caribbean (ida &amp; ibrd countries)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>10.56898249238623</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>least developed countries: un classification</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>14.45647161196129</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>low &amp; middle income</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10.8742152729751</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>low income</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>16.3206364379932</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>lower middle income</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10.21055219182252</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>middle income</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>10.30615482298077</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>south asia</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B77" t="n">
         <v>8.972202982409682</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>south asia (ida &amp; ibrd)</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>8.972202982409682</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>upper middle income</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10.39280933426016</v>
       </c>
     </row>
   </sheetData>
